--- a/Stomach_content_km.xlsx
+++ b/Stomach_content_km.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/510852ff01b61d64/Documentos/MEGA/stomachs jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{04322BA0-49A5-4CFA-9905-D854F02F6023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDFF333E-73E9-41AF-AB0B-FF1A729586AE}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="14_{04322BA0-49A5-4CFA-9905-D854F02F6023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A6B6994-099F-4D36-9846-DD2AAD25EC4B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C039F7C0-D20B-4338-A80E-BA183EEC0A7C}"/>
+    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C039F7C0-D20B-4338-A80E-BA183EEC0A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
     <sheet name="2017" sheetId="3" r:id="rId2"/>
     <sheet name="2018" sheetId="2" r:id="rId3"/>
     <sheet name="all_stom" sheetId="4" r:id="rId4"/>
+    <sheet name="extra" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="132">
   <si>
     <t>ct_envelope</t>
   </si>
@@ -575,6 +576,9 @@
   <si>
     <t>F2016LIP-S-104</t>
   </si>
+  <si>
+    <t>year</t>
+  </si>
 </sst>
 </file>
 
@@ -16585,11 +16589,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C361D54-256E-489A-97C4-B4388CD2F0BC}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -19894,4 +19909,582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EC6B4C-18E9-47A6-9E09-AB76BF710B0F}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>372954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2017</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2017</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2017</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2017</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2017</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2017</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2017</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2017</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2017</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2017</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2017</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>